--- a/000_lib/reminder.xlsx
+++ b/000_lib/reminder.xlsx
@@ -14,21 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
-    <t>9</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>祭礼委員</t>
-  </si>
-  <si>
-    <t>五協会館</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -434,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
